--- a/tests/tempos.xlsx
+++ b/tests/tempos.xlsx
@@ -10,13 +10,14 @@
   <sheets>
     <sheet name="Face Detection" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Saturation Detection" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="MajorLines" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="35">
   <si>
     <t>1 Face</t>
   </si>
@@ -103,14 +104,33 @@
   </si>
   <si>
     <t>Horizon Detection 3lines</t>
+  </si>
+  <si>
+    <t>Image Simplicity method1</t>
+  </si>
+  <si>
+    <t>Image Simplicity method2</t>
+  </si>
+  <si>
+    <t>Image Simplicity method3</t>
+  </si>
+  <si>
+    <t>Major Lines 160</t>
+  </si>
+  <si>
+    <t>Major Lines 100</t>
+  </si>
+  <si>
+    <t>Major Lines 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="0.00" numFmtId="165"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -191,7 +211,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -214,6 +234,14 @@
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -240,7 +268,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J15" activeCellId="0" pane="topLeft" sqref="J15"/>
+      <selection activeCell="J15" activeCellId="1" pane="topLeft" sqref="F115:I116 J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -724,18 +752,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A67" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I94" activeCellId="0" pane="topLeft" sqref="I94"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A100" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I116" activeCellId="0" pane="topLeft" sqref="F115:I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0561224489796"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9132653061225"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8673469387755"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
@@ -747,7 +776,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="7"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -760,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="7"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
@@ -777,7 +806,7 @@
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="6" t="n">
         <f aca="false">AVERAGE(B3:B12)</f>
         <v>37.4</v>
       </c>
@@ -799,13 +828,13 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="8" t="n">
         <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">STDEV(B4:B11)</f>
         <v>8.97615889851715</v>
       </c>
@@ -827,7 +856,7 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="8" t="n">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -841,7 +870,7 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="8" t="n">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -855,7 +884,7 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="8" t="n">
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -875,13 +904,13 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="8" t="n">
         <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="6" t="n">
         <v>75.915875</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -901,13 +930,13 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="8" t="n">
         <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="6" t="n">
         <v>16.5543047607</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -927,7 +956,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="8" t="n">
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -941,7 +970,7 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="8" t="n">
         <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -971,7 +1000,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="7"/>
       <c r="G19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1030,7 @@
       <c r="C20" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="6" t="n">
         <f aca="false">AVERAGE(B21:B28)</f>
         <v>336.125</v>
       </c>
@@ -1029,7 +1058,7 @@
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="6" t="n">
         <f aca="false">STDEV(B21:B28)</f>
         <v>20.5526327823399</v>
       </c>
@@ -1105,7 +1134,7 @@
       <c r="C25" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="6" t="n">
         <v>399.1585</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1131,7 +1160,7 @@
       <c r="C26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="6" t="n">
         <v>18.3159368379</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1195,7 +1224,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="7"/>
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="7"/>
       <c r="G36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1254,7 @@
       <c r="C37" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="6" t="n">
         <f aca="false">AVERAGE(B38:B45)</f>
         <v>40.375</v>
       </c>
@@ -1253,7 +1282,7 @@
       <c r="C38" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="6" t="n">
         <f aca="false">STDEV(B38:B45)</f>
         <v>11.4759064378997</v>
       </c>
@@ -1329,7 +1358,7 @@
       <c r="C42" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="6" t="n">
         <v>85.60425</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -1355,7 +1384,7 @@
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="6" t="n">
         <v>27.8358385842</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -1419,7 +1448,7 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="7"/>
       <c r="F52" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="7"/>
       <c r="G53" s="2" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1478,7 @@
       <c r="C54" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="6" t="n">
         <f aca="false">AVERAGE(B55:B62)</f>
         <v>90.375</v>
       </c>
@@ -1477,7 +1506,7 @@
       <c r="C55" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="6" t="n">
         <f aca="false">STDEV(B55:B62)</f>
         <v>18.047061494089</v>
       </c>
@@ -1553,7 +1582,7 @@
       <c r="C59" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="6" t="n">
         <v>152.16825</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -1579,7 +1608,7 @@
       <c r="C60" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="6" t="n">
         <v>20.6261092838</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -1637,18 +1666,13 @@
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="7"/>
       <c r="F69" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="7"/>
       <c r="G70" s="2" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +1702,7 @@
       <c r="C71" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="6" t="n">
         <f aca="false">AVERAGE(B72:B79)</f>
         <v>336.125</v>
       </c>
@@ -1706,7 +1730,7 @@
       <c r="C72" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="6" t="n">
         <f aca="false">STDEV(B72:B79)</f>
         <v>20.5526327823399</v>
       </c>
@@ -1796,7 +1820,7 @@
       <c r="C77" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="6" t="n">
         <v>593.683</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -1822,7 +1846,7 @@
       <c r="C78" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="6" t="n">
         <v>111.35361902</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -1872,7 +1896,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="7"/>
       <c r="F86" s="1" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="7"/>
       <c r="G87" s="2" t="s">
         <v>2</v>
       </c>
@@ -1902,7 +1926,7 @@
       <c r="C88" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="6" t="n">
         <f aca="false">AVERAGE(B89:B96)</f>
         <v>2538.25</v>
       </c>
@@ -1930,7 +1954,7 @@
       <c r="C89" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="6" t="n">
         <f aca="false">STDEV(B89:B96)</f>
         <v>529.129136276904</v>
       </c>
@@ -2006,7 +2030,7 @@
       <c r="C93" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="6" t="n">
         <v>2659.285125</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -2032,7 +2056,7 @@
       <c r="C94" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="6" t="n">
         <v>485.296374</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -2090,8 +2114,426 @@
         <v>3021</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
+      <c r="A101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="7"/>
+      <c r="G101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+      <c r="B102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="7"/>
+      <c r="H102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
+      <c r="A103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="6" t="n">
+        <f aca="false">AVERAGE(B104:B111)</f>
+        <v>128.75</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" s="6" t="n">
+        <f aca="false">AVERAGE(H104:H111)</f>
+        <v>106.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
+      <c r="A104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="6" t="n">
+        <f aca="false">STDEV(B104:B111)</f>
+        <v>24.4759357036953</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="6" t="n">
+        <f aca="false">STDEV(H104:H111)</f>
+        <v>18.6528435212589</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="J105" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
+      <c r="A106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="J106" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
+      <c r="A108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>172.2865</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" s="6" t="n">
+        <v>143.144375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
+      <c r="A109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>33.5904662144</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="6" t="n">
+        <v>32.3348972124</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="J110" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
+      <c r="A111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="J111" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
+      <c r="A112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>174</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="J112" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
+      <c r="A115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="7"/>
+      <c r="F115" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>172.2865</v>
+      </c>
+      <c r="H115" s="6" t="n">
+        <v>143.144375</v>
+      </c>
+      <c r="I115" s="6" t="n">
+        <v>221.28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
+      <c r="B116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="7"/>
+      <c r="F116" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>33.5904662144</v>
+      </c>
+      <c r="H116" s="6" t="n">
+        <v>32.3348972124</v>
+      </c>
+      <c r="I116" s="6" t="n">
+        <v>37.617571353</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
+      <c r="A117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <f aca="false">AVERAGE(B118:B125)</f>
+        <v>169.25</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
+      <c r="A118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <f aca="false">STDEV(B118:B125)</f>
+        <v>24.3413228892762</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
+      <c r="A122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>221.28</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
+      <c r="A123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>37.617571353</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
+      <c r="A124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
+      <c r="A125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
+      <c r="A126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>250</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A18:B18"/>
@@ -2104,10 +2546,397 @@
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A115:B115"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C1" activeCellId="1" pane="topLeft" sqref="F115:I116 C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>363</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B11)</f>
+        <v>406.25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>281</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G11)</f>
+        <v>310.625</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>376</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">STDEV(B4:B11)</f>
+        <v>32.3143046608508</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>283</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">STDEV(G4:G11)</f>
+        <v>15.2403365167196</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>382</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>384</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>389</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>313</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>404</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>455.2835</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>314</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>356.563625</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>411</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>43.4058628212</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>25.1014896368</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>432</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>472</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>489</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>349</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">AVERAGE(B18:B25)</f>
+        <v>378.375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>354</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">STDEV(B18:B25)</f>
+        <v>16.9447632028305</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>374</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>434.182</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>381</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>50.2864510281</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
